--- a/data/case1/14/Qlm1_6.xlsx
+++ b/data/case1/14/Qlm1_6.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.16648723402020238</v>
+        <v>-0.15885515775920567</v>
       </c>
       <c r="B1" s="0">
-        <v>0.16602662259577983</v>
+        <v>0.15839478954804065</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.1010190004932312</v>
+        <v>-0.092404355109026781</v>
       </c>
       <c r="B2" s="0">
-        <v>0.099965495289274564</v>
+        <v>0.091342636528768395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.050251920910151071</v>
+        <v>-0.041627976109406717</v>
       </c>
       <c r="B3" s="0">
-        <v>0.050012217492204414</v>
+        <v>0.04138260798086435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.042012217581740785</v>
+        <v>-0.033382608030199989</v>
       </c>
       <c r="B4" s="0">
-        <v>0.04151817643345268</v>
+        <v>0.032874019136016841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.038518176478621768</v>
+        <v>-0.029874019160059717</v>
       </c>
       <c r="B5" s="0">
-        <v>0.036829346155159648</v>
+        <v>0.028134747323381504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.02625226203305786</v>
+        <v>0.020285730722047646</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.026501545363238677</v>
+        <v>-0.020530012206828374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.036501545244823852</v>
+        <v>0.030530012143063612</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.036566162811794367</v>
+        <v>-0.030590362598928333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.046566162697974534</v>
+        <v>0.04059036253718773</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.046727007371770046</v>
+        <v>-0.040729123954925228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.048727007342543427</v>
+        <v>0.042729123939692304</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.048879602172814174</v>
+        <v>-0.042857804273134903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.014910656645652054</v>
+        <v>-0.014563636317982187</v>
       </c>
       <c r="B10" s="0">
-        <v>0.014911102146777822</v>
+        <v>0.014563713419970981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.011911102176271449</v>
+        <v>-0.011563713436321343</v>
       </c>
       <c r="B11" s="0">
-        <v>0.011911060732306744</v>
+        <v>0.011563156136251251</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0084110607669152238</v>
+        <v>-0.0080631561555430942</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0084021802580678262</v>
+        <v>0.0080574685569274607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0049021802946231929</v>
+        <v>-0.0045574685772589163</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0048939875815365852</v>
+        <v>0.0045529914858786213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0031060123389137217</v>
+        <v>0.0034470084696831549</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0031268914387050373</v>
+        <v>-0.0034623766683941071</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0041268914257921452</v>
+        <v>0.0044623766613227644</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0041611198218500789</v>
+        <v>-0.0044892076699483141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0061611198000099954</v>
+        <v>0.0064892076578391134</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0063204081831176318</v>
+        <v>-0.0066191032818241347</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0083204081629810744</v>
+        <v>0.0086191032705551507</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.0083919290151879267</v>
+        <v>-0.0086795838954012439</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.059007622161306728</v>
+        <v>-0.059990434472084075</v>
       </c>
       <c r="B18" s="0">
-        <v>0.058850419580096514</v>
+        <v>0.059836099253185893</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.01209126559111029</v>
+        <v>-0.012091873361897765</v>
       </c>
       <c r="B19" s="0">
-        <v>0.01201612496482074</v>
+        <v>0.012016726046188975</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080161250100161396</v>
+        <v>-0.0080167260711174748</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055999981833992</v>
+        <v>0.008005691693016459</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056000439072648</v>
+        <v>-0.0040056917182251794</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999541651121</v>
+        <v>0.0039999999746331838</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045713574428214443</v>
+        <v>-0.045714660446096289</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045500140938992573</v>
+        <v>0.045500581857329081</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040500141000743284</v>
+        <v>-0.040500581891139475</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099109505889352</v>
+        <v>0.04009932677081629</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099109716666064</v>
+        <v>-0.020099326887690339</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999786309175</v>
+        <v>0.019999999881517461</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097256809257064702</v>
+        <v>-0.097261294378713004</v>
       </c>
       <c r="B25" s="0">
-        <v>0.09713323656489159</v>
+        <v>0.097136150497600937</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094633236616257221</v>
+        <v>-0.094636150523617957</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094472986770563594</v>
+        <v>0.094474853398249792</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091972986826879044</v>
+        <v>-0.091974853426884273</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091016929163513449</v>
+        <v>0.09101895593197229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089016929233768138</v>
+        <v>-0.089018955968126257</v>
       </c>
       <c r="B28" s="0">
-        <v>0.08836253436591246</v>
+        <v>0.088364508233031103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081362534499836769</v>
+        <v>-0.081364508303699346</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081173242049632499</v>
+        <v>0.081174795847910985</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021173242693664829</v>
+        <v>-0.021174796204353363</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022474886836395</v>
+        <v>0.021023896341039627</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022475033067749</v>
+        <v>-0.014023896418230208</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000827993248421</v>
+        <v>0.014001260550200456</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040008281686088054</v>
+        <v>-0.0040012606437027642</v>
       </c>
       <c r="B32" s="0">
-        <v>0.00399999988154498</v>
+        <v>0.0039999999383049101</v>
       </c>
     </row>
   </sheetData>
